--- a/sources_files_625_T1maps.xlsx
+++ b/sources_files_625_T1maps.xlsx
@@ -1480,2704 +1480,2704 @@
     <t>Slice</t>
   </si>
   <si>
-    <t>data\dcm\Mapping_Studie_06_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0150-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_01_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0022-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_1\P_01_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_01_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_23\IM-0023-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_2\P_01_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_02_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_25\IM-0025-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_1\P_02_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_02_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0022-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_2\P_02_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_03_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0022-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_1\P_03_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_03_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_23\IM-0054-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_2\P_03_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_04_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0022-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_1\P_04_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_04_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0047-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_2\P_04_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_05_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0072-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_1\P_05_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_05_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0100-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_2\P_05_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_06_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0125-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_1\P_06_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_2\P_06_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_07_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0175-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_1\P_07_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_07_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0200-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_2\P_07_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_08_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-2401-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_1\P_08_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_08_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0225-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_2\P_08_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_09_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0250-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_1\P_09_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_09_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_23\IM-0276-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_2\P_09_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_10_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0301-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_1\P_10_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_10_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0326-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_2\P_10_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_11_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_23\IM-0352-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_1\P_11_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_11_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_23\IM-0378-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_2\P_11_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_12_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0403-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_1\P_12_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_12_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0428-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_2\P_12_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_13_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0453-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_1\P_13_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_13_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0478-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_2\P_13_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_14_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0503-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_1\P_14_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_14_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0528-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_2\P_14_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_15_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0553-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_1\P_15_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_15_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0578-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_2\P_15_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_16_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0603-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_1\P_16_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_16_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0628-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_2\P_16_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_17_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0653-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_1\P_17_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_17_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0678-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_2\P_17_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_18_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0703-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_1\P_18_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_18_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_23\IM-0729-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_2\P_18_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_19_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_25\IM-0757-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_1\P_19_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_19_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0782-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_2\P_19_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_20_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0807-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_1\P_20_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_20_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0832-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_2\P_20_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_21_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0857-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_1\P_21_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_21_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0882-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_2\P_21_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_22_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0907-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_1\P_22_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_22_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0932-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_2\P_22_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_23_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0957-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_1\P_23_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_23_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0982-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_2\P_23_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_24_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-1007-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_1\P_24_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_24_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-1032-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_2\P_24_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_25_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-1057-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_1\P_25_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_25_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-1082-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_2\P_25_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_26_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-1107-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_1\P_26_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_26_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-1132-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_2\P_26_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_27_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-1157-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_1\P_27_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_27_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-1182-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_2\P_27_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_28_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_32\IM-1217-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_1\P_28_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_28_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_23\IM-1243-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_2\P_28_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_29_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-1268-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_1\P_29_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_29_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-1293-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_2\P_29_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_30_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-1318-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_1\P_30_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_30_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-1343-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_2\P_30_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_31_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_23\IM-1380-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_1\P_31_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_31_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_31\IM-1414-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_2\P_31_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_32_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_23\IM-1440-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_1\P_32_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_32_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-1465-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_2\P_32_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_33_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-1490-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_1\P_33_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_33_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-1515-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_2\P_33_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_34_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-1540-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_1\P_34_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_34_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-1565-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_2\P_34_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_35_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_23\IM-1591-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_1\P_35_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_35_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_23\IM-1617-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_2\P_35_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_36_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-1642-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_1\P_36_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_36_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-1667-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_2\P_36_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_37_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-1692-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_1\P_37_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_37_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-1717-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_2\P_37_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_38_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-1742-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_1\P_38_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_38_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-1767-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_2\P_38_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_39_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-1792-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_1\P_39_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_39_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-1817-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_2\P_39_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_40_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-1842-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_1\P_40_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_40_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-1867-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_2\P_40_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_41_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_23\IM-1893-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_1\P_41_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_41_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-1918-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_2\P_41_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_42_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-1943-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_1\P_42_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_42_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-1968-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_2\P_42_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_43_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_23\IM-1994-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_1\P_43_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_43_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_23\IM-2020-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_2\P_43_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_44_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-2048-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_1\P_44_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_44_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-2073-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_2\P_44_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_45_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-2098-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_1\P_45_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_45_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_23\IM-2124-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_2\P_45_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_46_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-2149-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_1\P_46_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_46_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-2174-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_2\P_46_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_47_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-2199-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_1\P_47_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_47_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-2224-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_2\P_47_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_48_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-2249-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_1\P_48_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_48_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-2274-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_2\P_48_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_49_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_23\IM-2300-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_1\P_49_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_49_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-2325-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_2\P_49_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_50_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_23\IM-2351-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_1\P_50_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_50_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-2376-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_4cv\D_2\P_50_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_01_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0013-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_1\P_01_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_01_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0013-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_01_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0013-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_01_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-0014-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_2\P_01_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_01_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-0014-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_01_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-0014-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_02_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_16\IM-0016-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_1\P_02_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_02_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_16\IM-0016-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_02_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_16\IM-0016-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_02_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0013-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_2\P_02_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_02_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0013-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_02_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0013-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_03_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_wh_MOCO_T1_28\IM-0028-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_1\P_03_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_03_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_wh_MOCO_T1_28\IM-0028-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_03_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_wh_MOCO_T1_28\IM-0028-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_03_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-0045-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_2\P_03_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_03_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-0045-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_03_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-0045-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_04_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0013-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_1\P_04_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_04_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0013-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_04_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0013-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_04_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0038-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_2\P_04_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_04_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0038-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_04_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0038-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_05_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0063-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_1\P_05_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_05_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0063-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_05_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0063-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_05_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0091-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_2\P_05_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_05_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0091-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_05_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0091-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_06_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0116-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_1\P_06_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_06_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0116-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_06_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0116-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_06_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0141-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_2\P_06_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_06_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0141-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_06_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0141-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_07_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0166-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_1\P_07_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_07_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0166-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_07_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0166-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_07_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0191-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_2\P_07_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_07_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0191-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_07_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0191-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_08_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2392-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_1\P_08_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_08_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2392-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_08_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2392-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_08_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0216-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_2\P_08_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_08_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0216-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_08_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0216-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_09_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0241-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_1\P_09_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_09_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0241-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_09_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0241-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_09_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-0267-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_2\P_09_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_09_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-0267-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_09_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-0267-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_10_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0292-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_1\P_10_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_10_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0292-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_10_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0292-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_10_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0317-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_2\P_10_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_10_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0317-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_10_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0317-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_11_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-0343-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_1\P_11_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_11_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-0343-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_11_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-0343-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_11_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-0369-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_2\P_11_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_11_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-0369-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_11_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-0369-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_12_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0394-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_1\P_12_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_12_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0394-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_12_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0394-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_12_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0419-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_2\P_12_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_12_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0419-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_12_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0419-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_13_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0444-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_1\P_13_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_13_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0444-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_13_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0444-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_13_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0469-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_2\P_13_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_13_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0469-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_13_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0469-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_14_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0494-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_1\P_14_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_14_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0494-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_14_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0494-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_14_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0519-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_2\P_14_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_14_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0519-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_14_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0519-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_15_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0544-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_1\P_15_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_15_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0544-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_15_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0544-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_15_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0569-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_2\P_15_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_15_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0569-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_15_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0569-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_16_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0594-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_1\P_16_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_16_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0594-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_16_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0594-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_16_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0619-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_2\P_16_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_16_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0619-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_16_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0619-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_17_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0644-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_1\P_17_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_17_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0644-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_17_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0644-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_17_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0669-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_2\P_17_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_17_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0669-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_17_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0669-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_18_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0694-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_1\P_18_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_18_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0694-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_18_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0694-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_18_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-0720-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_2\P_18_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_18_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-0720-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_18_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-0720-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_19_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_16\IM-0748-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_1\P_19_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_19_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_16\IM-0748-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_19_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_16\IM-0748-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_19_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0773-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_2\P_19_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_19_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0773-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_19_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0773-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_20_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0798-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_1\P_20_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_20_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0798-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_20_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0798-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_20_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0823-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_2\P_20_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_20_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0823-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_20_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0823-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_21_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0848-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_1\P_21_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_21_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0848-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_21_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0848-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_21_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0873-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_2\P_21_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_21_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0873-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_21_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0873-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_22_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0898-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_1\P_22_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_22_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0898-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_22_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0898-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_22_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0923-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_2\P_22_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_22_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0923-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_22_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0923-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_23_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0948-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_1\P_23_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_23_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0948-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_23_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0948-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_23_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0973-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_2\P_23_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_23_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0973-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_23_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0973-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_24_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0998-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_1\P_24_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_24_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0998-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_24_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0998-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_24_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1023-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_2\P_24_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_24_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1023-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_24_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1023-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_25_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1048-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_1\P_25_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_25_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1048-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_25_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1048-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_25_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1073-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_2\P_25_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_25_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1073-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_25_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1073-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_26_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1098-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_1\P_26_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_26_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1098-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_26_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1098-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_26_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1123-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_2\P_26_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_26_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1123-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_26_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1123-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_27_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1148-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_1\P_27_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_27_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1148-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_27_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1148-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_27_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1173-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_2\P_27_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_27_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1173-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_27_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1173-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_28_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-1199-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_1\P_28_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_28_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-1199-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_28_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-1199-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_28_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-1234-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_2\P_28_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_28_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-1234-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_28_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-1234-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_29_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1259-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_1\P_29_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_29_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1259-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_29_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1259-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_29_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1284-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_2\P_29_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_29_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1284-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_29_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1284-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_30_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1309-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_1\P_30_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_30_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1309-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_30_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1309-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_30_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1334-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_2\P_30_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_30_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1334-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_30_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1334-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_31_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-1371-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_1\P_31_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_31_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-1371-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_31_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-1371-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_31_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1396-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_2\P_31_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_31_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1396-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_31_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1396-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_32_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-1431-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_1\P_32_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_32_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-1431-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_32_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-1431-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_32_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1456-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_2\P_32_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_32_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1456-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_32_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1456-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_33_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1481-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_1\P_33_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_33_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1481-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_33_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1481-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_33_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1506-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_2\P_33_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_33_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1506-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_33_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1506-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_34_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1531-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_1\P_34_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_34_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1531-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_34_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1531-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_34_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1556-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_2\P_34_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_34_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1556-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_34_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1556-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_35_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-1582-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_1\P_35_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_35_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-1582-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_35_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-1582-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_35_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-1608-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_2\P_35_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_35_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-1608-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_35_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-1608-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_36_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1633-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_1\P_36_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_36_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1633-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_36_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1633-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_36_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1658-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_2\P_36_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_36_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1658-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_36_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1658-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_37_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1683-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_1\P_37_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_37_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1683-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_37_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1683-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_37_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1708-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_2\P_37_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_37_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1708-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_37_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1708-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_38_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1733-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_1\P_38_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_38_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1733-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_38_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1733-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_38_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1758-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_2\P_38_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_38_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1758-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_38_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1758-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_39_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1783-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_1\P_39_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_39_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1783-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_39_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1783-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_39_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1808-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_2\P_39_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_39_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1808-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_39_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1808-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_40_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1833-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_1\P_40_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_40_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1833-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_40_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1833-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_40_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1858-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_2\P_40_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_40_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1858-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_40_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1858-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_41_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-1884-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_1\P_41_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_41_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-1884-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_41_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-1884-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_41_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1909-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_2\P_41_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_41_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1909-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_41_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1909-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_42_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1934-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_1\P_42_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_42_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1934-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_42_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1934-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_42_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1959-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_2\P_42_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_42_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1959-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_42_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1959-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_43_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-1985-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_1\P_43_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_43_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-1985-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_43_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-1985-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_43_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-2011-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_2\P_43_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_43_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-2011-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_43_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-2011-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_44_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2039-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_1\P_44_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_44_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2039-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_44_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2039-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_44_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2064-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_2\P_44_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_44_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2064-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_44_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2064-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_45_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2089-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_1\P_45_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_45_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2089-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_45_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2089-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_45_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-2115-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_2\P_45_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_45_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-2115-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_45_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-2115-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_46_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2140-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_1\P_46_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_46_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2140-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_46_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2140-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_46_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2165-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_2\P_46_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_46_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2165-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_46_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2165-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_47_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2190-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_1\P_47_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_47_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2190-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_47_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2190-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_47_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2215-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_2\P_47_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_47_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2215-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_47_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2215-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_48_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2240-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_1\P_48_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_48_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2240-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_48_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2240-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_48_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2265-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_2\P_48_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_48_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2265-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_48_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2265-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_49_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-2291-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_1\P_49_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_49_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-2291-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_49_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-2291-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_49_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2316-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_2\P_49_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_49_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2316-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_49_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2316-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_50_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-2342-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_1\P_50_D_1_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_50_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-2342-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_50_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-2342-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_50_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2367-0001.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_2\P_50_D_2_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_50_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2367-0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_50_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2367-0003.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P51\T1Map_LongT1_MOCO_T1\P51_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P51_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P51\T1Map_LongT1_MOCO_T1\P51_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P51\T1Map_LongT1_MOCO_T1\P51_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P52\T1Map_LongT1_MOCO_T1\P52_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P52_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P52\T1Map_LongT1_MOCO_T1\P52_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P52\T1Map_LongT1_MOCO_T1\P52_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P54\T1Map_LongT1_MOCO_T1\P54_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P54_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P54\T1Map_LongT1_MOCO_T1\P54_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P54\T1Map_LongT1_MOCO_T1\P54_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P55\T1Map_LongT1_MOCO_T1\P55_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P55_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P55\T1Map_LongT1_MOCO_T1\P55_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P55\T1Map_LongT1_MOCO_T1\P55_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P59\T1Map_LongT1_MOCO_T1\P59_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P59_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P59\T1Map_LongT1_MOCO_T1\P59_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P59\T1Map_LongT1_MOCO_T1\P59_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P60\T1Map_LongT1_MOCO_T1\P60_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P60_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P60\T1Map_LongT1_MOCO_T1\P60_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P60\T1Map_LongT1_MOCO_T1\P60_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P61\T1Map_LongT1_MOCO_T1\P61_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P61_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P61\T1Map_LongT1_MOCO_T1\P61_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P61\T1Map_LongT1_MOCO_T1\P61_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P62\T1Map_LongT1_MOCO_T1\P62_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P62_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P62\T1Map_LongT1_MOCO_T1\P62_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P62\T1Map_LongT1_MOCO_T1\P62_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P63\T1Map_LongT1_MOCO_T1\P63_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P63_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P63\T1Map_LongT1_MOCO_T1\P63_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P63\T1Map_LongT1_MOCO_T1\P63_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P64\T1Map_LongT1_MOCO_T1\P64_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P64_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P64\T1Map_LongT1_MOCO_T1\P64_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P64\T1Map_LongT1_MOCO_T1\P64_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P65\T1Map_LongT1_MOCO_T1\P65_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P65_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P65\T1Map_LongT1_MOCO_T1\P65_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P65\T1Map_LongT1_MOCO_T1\P65_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P66\T1Map_LongT1_MOCO_T1\P66_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P66_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P66\T1Map_LongT1_MOCO_T1\P66_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P66\T1Map_LongT1_MOCO_T1\P66_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P67\T1Map_LongT1_MOCO_T1\P67_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P67_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P67\T1Map_LongT1_MOCO_T1\P67_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P67\T1Map_LongT1_MOCO_T1\P67_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P68\T1Map_LongT1_MOCO_T1\P68_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P68_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P68\T1Map_LongT1_MOCO_T1\P68_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P68\T1Map_LongT1_MOCO_T1\P68_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P69\T1Map_LongT1_MOCO_T1\P69_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P69_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P69\T1Map_LongT1_MOCO_T1\P69_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P69\T1Map_LongT1_MOCO_T1\P69_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P72\T1Map_LongT1_MOCO_T1\P72_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P72_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P72\T1Map_LongT1_MOCO_T1\P72_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P72\T1Map_LongT1_MOCO_T1\P72_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P73\T1Map_LongT1_MOCO_T1\P73_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P73_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P73\T1Map_LongT1_MOCO_T1\P73_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P73\T1Map_LongT1_MOCO_T1\P73_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P74\T1Map_LongT1_MOCO_T1\P74_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P74_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P74\T1Map_LongT1_MOCO_T1\P74_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P74\T1Map_LongT1_MOCO_T1\P74_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P75\T1Map_LongT1_MOCO_T1\P75_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P75_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P75\T1Map_LongT1_MOCO_T1\P75_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P75\T1Map_LongT1_MOCO_T1\P75_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P76\T1Map_LongT1_MOCO_T1\P76_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P76_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P76\T1Map_LongT1_MOCO_T1\P76_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P76\T1Map_LongT1_MOCO_T1\P76_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P77\T1Map_LongT1_MOCO_T1\P77_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P77_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P77\T1Map_LongT1_MOCO_T1\P77_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P77\T1Map_LongT1_MOCO_T1\P77_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P78\T1Map_LongT1_MOCO_T1\P78_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P78_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P78\T1Map_LongT1_MOCO_T1\P78_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P78\T1Map_LongT1_MOCO_T1\P78_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P79\T1Map_LongT1_MOCO_T1\P79_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P79_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P79\T1Map_LongT1_MOCO_T1\P79_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P79\T1Map_LongT1_MOCO_T1\P79_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P80\T1Map_LongT1_MOCO_T1\P80_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P80_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P80\T1Map_LongT1_MOCO_T1\P80_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P80\T1Map_LongT1_MOCO_T1\P80_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P81\T1Map_LongT1_MOCO_T1\P81_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P81_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P81\T1Map_LongT1_MOCO_T1\P81_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P81\T1Map_LongT1_MOCO_T1\P81_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P82\T1Map_LongT1_MOCO_T1\P82_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P82_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P82\T1Map_LongT1_MOCO_T1\P82_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P82\T1Map_LongT1_MOCO_T1\P82_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P84\T1Map_LongT1_MOCO_T1\P84_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P84_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P84\T1Map_LongT1_MOCO_T1\P84_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P84\T1Map_LongT1_MOCO_T1\P84_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P86\T1Map_LongT1_MOCO_T1\P86_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P86_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P86\T1Map_LongT1_MOCO_T1\P86_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P86\T1Map_LongT1_MOCO_T1\P86_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P87\T1Map_LongT1_MOCO_T1\P87_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P87_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P87\T1Map_LongT1_MOCO_T1\P87_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P87\T1Map_LongT1_MOCO_T1\P87_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P88\T1Map_LongT1_MOCO_T1\P88_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P88_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P88\T1Map_LongT1_MOCO_T1\P88_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P88\T1Map_LongT1_MOCO_T1\P88_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P89\T1Map_LongT1_MOCO_T1\P89_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P89_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P89\T1Map_LongT1_MOCO_T1\P89_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P89\T1Map_LongT1_MOCO_T1\P89_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P90\T1Map_LongT1_MOCO_T1\P90_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P90_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P90\T1Map_LongT1_MOCO_T1\P90_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P90\T1Map_LongT1_MOCO_T1\P90_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P92\T1Map_LongT1_MOCO_T1\P92_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P92_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P92\T1Map_LongT1_MOCO_T1\P92_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P92\T1Map_LongT1_MOCO_T1\P92_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P93\T1Map_LongT1_MOCO_T1\P93_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P93_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P93\T1Map_LongT1_MOCO_T1\P93_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P93\T1Map_LongT1_MOCO_T1\P93_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P94\T1Map_LongT1_MOCO_T1\P94_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P94_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P94\T1Map_LongT1_MOCO_T1\P94_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P94\T1Map_LongT1_MOCO_T1\P94_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P95\T1Map_LongT1_MOCO_T1\P95_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P95_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P95\T1Map_LongT1_MOCO_T1\P95_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P95\T1Map_LongT1_MOCO_T1\P95_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P96\T1Map_LongT1_MOCO_T1\P96_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P96_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P96\T1Map_LongT1_MOCO_T1\P96_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P96\T1Map_LongT1_MOCO_T1\P96_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P97\T1Map_LongT1_MOCO_T1\P97_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P97_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P97\T1Map_LongT1_MOCO_T1\P97_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P97\T1Map_LongT1_MOCO_T1\P97_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P98\T1Map_LongT1_MOCO_T1\P98_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P98_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P98\T1Map_LongT1_MOCO_T1\P98_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P98\T1Map_LongT1_MOCO_T1\P98_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P99\T1Map_LongT1_MOCO_T1\P99_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P99_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P99\T1Map_LongT1_MOCO_T1\P99_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P99\T1Map_LongT1_MOCO_T1\P99_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P100\T1Map_LongT1_MOCO_T1\P100_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P100_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P100\T1Map_LongT1_MOCO_T1\P100_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P100\T1Map_LongT1_MOCO_T1\P100_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P101\T1Map_LongT1_MOCO_T1\P101_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P101_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P101\T1Map_LongT1_MOCO_T1\P101_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P101\T1Map_LongT1_MOCO_T1\P101_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P102\T1Map_LongT1_MOCO_T1\P102_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P102_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P102\T1Map_LongT1_MOCO_T1\P102_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P102\T1Map_LongT1_MOCO_T1\P102_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P103\T1Map_LongT1_MOCO_T1\P103_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P103_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P103\T1Map_LongT1_MOCO_T1\P103_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P103\T1Map_LongT1_MOCO_T1\P103_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P104\T1Map_LongT1_MOCO_T1\P104_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P104_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P104\T1Map_LongT1_MOCO_T1\P104_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P104\T1Map_LongT1_MOCO_T1\P104_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P105\T1Map_LongT1_MOCO_T1\P105_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P105_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P105\T1Map_LongT1_MOCO_T1\P105_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P105\T1Map_LongT1_MOCO_T1\P105_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P106\T1Map_LongT1_MOCO_T1\P106_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P106_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P106\T1Map_LongT1_MOCO_T1\P106_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P106\T1Map_LongT1_MOCO_T1\P106_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P107\T1Map_LongT1_MOCO_T1\P107_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P107_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P107\T1Map_LongT1_MOCO_T1\P107_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P107\T1Map_LongT1_MOCO_T1\P107_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P108\T1Map_LongT1_MOCO_T1\P108_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P108_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P108\T1Map_LongT1_MOCO_T1\P108_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P108\T1Map_LongT1_MOCO_T1\P108_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P110\T1Map_LongT1_MOCO_T1\P110_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P110_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P110\T1Map_LongT1_MOCO_T1\P110_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P110\T1Map_LongT1_MOCO_T1\P110_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P111\T1Map_LongT1_MOCO_T1\P111_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P111_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P111\T1Map_LongT1_MOCO_T1\P111_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P111\T1Map_LongT1_MOCO_T1\P111_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P112\T1Map_LongT1_MOCO_T1\P112_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P112_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P112\T1Map_LongT1_MOCO_T1\P112_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P112\T1Map_LongT1_MOCO_T1\P112_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P113\T1Map_LongT1_MOCO_T1\P113_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P113_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P113\T1Map_LongT1_MOCO_T1\P113_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P113\T1Map_LongT1_MOCO_T1\P113_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P114\T1Map_LongT1_MOCO_T1\P114_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P114_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P114\T1Map_LongT1_MOCO_T1\P114_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P114\T1Map_LongT1_MOCO_T1\P114_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P115\T1Map_LongT1_MOCO_T1\P115_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P115_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P115\T1Map_LongT1_MOCO_T1\P115_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P115\T1Map_LongT1_MOCO_T1\P115_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P116\T1Map_LongT1_MOCO_T1\P116_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P116_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P116\T1Map_LongT1_MOCO_T1\P116_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P116\T1Map_LongT1_MOCO_T1\P116_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P117\T1Map_LongT1_MOCO_T1\P117_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P117_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P117\T1Map_LongT1_MOCO_T1\P117_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P117\T1Map_LongT1_MOCO_T1\P117_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P118\T1Map_LongT1_MOCO_T1\P118_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P118_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P118\T1Map_LongT1_MOCO_T1\P118_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P118\T1Map_LongT1_MOCO_T1\P118_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P121\T1Map_LongT1_MOCO_T1\P121_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P121_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P121\T1Map_LongT1_MOCO_T1\P121_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P121\T1Map_LongT1_MOCO_T1\P121_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P122\T1Map_LongT1_MOCO_T1\P122_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P122_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P122\T1Map_LongT1_MOCO_T1\P122_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P122\T1Map_LongT1_MOCO_T1\P122_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P123\T1Map_LongT1_MOCO_T1\P123_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P123_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P123\T1Map_LongT1_MOCO_T1\P123_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P123\T1Map_LongT1_MOCO_T1\P123_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P124\T1Map_LongT1_MOCO_T1\P124_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P124_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P124\T1Map_LongT1_MOCO_T1\P124_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P124\T1Map_LongT1_MOCO_T1\P124_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P125\T1Map_LongT1_MOCO_T1\P125_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P125_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P125\T1Map_LongT1_MOCO_T1\P125_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P125\T1Map_LongT1_MOCO_T1\P125_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P126\T1Map_LongT1_MOCO_T1\P126_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P126_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P126\T1Map_LongT1_MOCO_T1\P126_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P126\T1Map_LongT1_MOCO_T1\P126_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P127\T1Map_LongT1_MOCO_T1\P127_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P127_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P127\T1Map_LongT1_MOCO_T1\P127_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P127\T1Map_LongT1_MOCO_T1\P127_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P128\T1Map_LongT1_MOCO_T1\P128_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P128_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P128\T1Map_LongT1_MOCO_T1\P128_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P128\T1Map_LongT1_MOCO_T1\P128_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P129\T1Map_LongT1_MOCO_T1\P129_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P129_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P129\T1Map_LongT1_MOCO_T1\P129_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P129\T1Map_LongT1_MOCO_T1\P129_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P130\T1Map_LongT1_MOCO_T1\P130_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P130_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P130\T1Map_LongT1_MOCO_T1\P130_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P130\T1Map_LongT1_MOCO_T1\P130_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P131\T1Map_LongT1_MOCO_T1\P131_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P131_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P131\T1Map_LongT1_MOCO_T1\P131_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P131\T1Map_LongT1_MOCO_T1\P131_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P132\T1Map_LongT1_MOCO_T1\P132_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P132_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P132\T1Map_LongT1_MOCO_T1\P132_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P132\T1Map_LongT1_MOCO_T1\P132_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P133\T1Map_LongT1_MOCO_T1\P133_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P133_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P133\T1Map_LongT1_MOCO_T1\P133_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P133\T1Map_LongT1_MOCO_T1\P133_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P134\T1Map_LongT1_MOCO_T1\P134_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P134_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P134\T1Map_LongT1_MOCO_T1\P134_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P134\T1Map_LongT1_MOCO_T1\P134_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P135\T1Map_LongT1_MOCO_T1\P135_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P135_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P135\T1Map_LongT1_MOCO_T1\P135_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P135\T1Map_LongT1_MOCO_T1\P135_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P136\T1Map_LongT1_MOCO_T1\P136_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P136_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P136\T1Map_LongT1_MOCO_T1\P136_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P136\T1Map_LongT1_MOCO_T1\P136_0002.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P137\T1Map_LongT1_MOCO_T1\P137_0000.dcm</t>
-  </si>
-  <si>
-    <t>data\mha\masks\T1_highres_sax\D_3\P137_D3_mask.mha</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P137\T1Map_LongT1_MOCO_T1\P137_0001.dcm</t>
-  </si>
-  <si>
-    <t>data\dcm\Mapping_Studie_P137\T1Map_LongT1_MOCO_T1\P137_0002.dcm</t>
+    <t>..\data\dcm\Mapping_Studie_01_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0022-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_1\P_01_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_01_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_23\IM-0023-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_2\P_01_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_02_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_25\IM-0025-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_1\P_02_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_02_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0022-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_2\P_02_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_03_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0022-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_1\P_03_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_03_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_23\IM-0054-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_2\P_03_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_04_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0022-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_1\P_04_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_04_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0047-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_2\P_04_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_05_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0072-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_1\P_05_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_05_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0100-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_2\P_05_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_06_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0125-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_1\P_06_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_06_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0150-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_2\P_06_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_07_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0175-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_1\P_07_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_07_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0200-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_2\P_07_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_08_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-2401-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_1\P_08_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_08_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0225-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_2\P_08_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_09_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0250-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_1\P_09_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_09_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_23\IM-0276-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_2\P_09_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_10_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0301-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_1\P_10_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_10_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0326-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_2\P_10_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_11_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_23\IM-0352-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_1\P_11_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_11_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_23\IM-0378-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_2\P_11_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_12_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0403-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_1\P_12_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_12_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0428-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_2\P_12_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_13_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0453-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_1\P_13_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_13_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0478-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_2\P_13_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_14_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0503-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_1\P_14_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_14_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0528-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_2\P_14_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_15_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0553-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_1\P_15_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_15_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0578-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_2\P_15_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_16_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0603-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_1\P_16_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_16_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0628-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_2\P_16_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_17_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0653-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_1\P_17_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_17_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0678-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_2\P_17_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_18_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0703-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_1\P_18_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_18_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_23\IM-0729-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_2\P_18_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_19_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_25\IM-0757-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_1\P_19_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_19_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0782-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_2\P_19_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_20_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0807-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_1\P_20_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_20_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0832-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_2\P_20_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_21_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0857-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_1\P_21_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_21_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0882-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_2\P_21_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_22_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0907-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_1\P_22_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_22_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0932-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_2\P_22_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_23_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0957-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_1\P_23_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_23_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-0982-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_2\P_23_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_24_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-1007-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_1\P_24_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_24_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-1032-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_2\P_24_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_25_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-1057-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_1\P_25_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_25_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-1082-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_2\P_25_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_26_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-1107-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_1\P_26_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_26_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-1132-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_2\P_26_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_27_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-1157-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_1\P_27_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_27_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-1182-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_2\P_27_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_28_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_32\IM-1217-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_1\P_28_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_28_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_23\IM-1243-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_2\P_28_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_29_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-1268-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_1\P_29_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_29_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-1293-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_2\P_29_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_30_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-1318-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_1\P_30_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_30_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-1343-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_2\P_30_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_31_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_23\IM-1380-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_1\P_31_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_31_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_31\IM-1414-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_2\P_31_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_32_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_23\IM-1440-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_1\P_32_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_32_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-1465-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_2\P_32_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_33_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-1490-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_1\P_33_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_33_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-1515-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_2\P_33_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_34_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-1540-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_1\P_34_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_34_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-1565-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_2\P_34_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_35_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_23\IM-1591-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_1\P_35_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_35_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_23\IM-1617-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_2\P_35_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_36_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-1642-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_1\P_36_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_36_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-1667-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_2\P_36_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_37_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-1692-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_1\P_37_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_37_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-1717-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_2\P_37_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_38_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-1742-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_1\P_38_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_38_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-1767-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_2\P_38_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_39_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-1792-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_1\P_39_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_39_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-1817-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_2\P_39_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_40_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-1842-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_1\P_40_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_40_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-1867-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_2\P_40_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_41_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_23\IM-1893-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_1\P_41_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_41_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-1918-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_2\P_41_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_42_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-1943-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_1\P_42_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_42_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-1968-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_2\P_42_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_43_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_23\IM-1994-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_1\P_43_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_43_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_23\IM-2020-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_2\P_43_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_44_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-2048-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_1\P_44_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_44_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-2073-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_2\P_44_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_45_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-2098-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_1\P_45_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_45_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_23\IM-2124-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_2\P_45_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_46_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-2149-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_1\P_46_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_46_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-2174-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_2\P_46_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_47_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-2199-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_1\P_47_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_47_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-2224-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_2\P_47_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_48_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-2249-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_1\P_48_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_48_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-2274-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_2\P_48_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_49_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_23\IM-2300-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_1\P_49_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_49_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-2325-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_2\P_49_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_50_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_23\IM-2351-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_1\P_50_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_50_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_4Kammer_MOCO_T1_22\IM-2376-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_4cv\D_2\P_50_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_01_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0013-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_1\P_01_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_01_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0013-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_01_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0013-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_01_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-0014-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_2\P_01_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_01_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-0014-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_01_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-0014-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_02_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_16\IM-0016-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_1\P_02_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_02_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_16\IM-0016-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_02_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_16\IM-0016-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_02_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0013-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_2\P_02_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_02_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0013-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_02_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0013-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_03_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_wh_MOCO_T1_28\IM-0028-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_1\P_03_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_03_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_wh_MOCO_T1_28\IM-0028-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_03_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_wh_MOCO_T1_28\IM-0028-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_03_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-0045-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_2\P_03_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_03_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-0045-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_03_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-0045-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_04_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0013-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_1\P_04_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_04_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0013-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_04_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0013-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_04_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0038-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_2\P_04_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_04_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0038-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_04_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0038-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_05_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0063-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_1\P_05_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_05_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0063-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_05_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0063-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_05_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0091-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_2\P_05_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_05_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0091-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_05_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0091-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_06_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0116-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_1\P_06_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_06_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0116-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_06_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0116-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_06_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0141-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_2\P_06_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_06_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0141-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_06_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0141-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_07_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0166-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_1\P_07_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_07_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0166-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_07_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0166-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_07_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0191-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_2\P_07_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_07_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0191-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_07_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0191-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_08_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2392-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_1\P_08_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_08_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2392-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_08_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2392-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_08_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0216-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_2\P_08_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_08_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0216-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_08_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0216-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_09_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0241-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_1\P_09_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_09_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0241-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_09_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0241-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_09_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-0267-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_2\P_09_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_09_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-0267-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_09_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-0267-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_10_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0292-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_1\P_10_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_10_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0292-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_10_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0292-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_10_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0317-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_2\P_10_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_10_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0317-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_10_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0317-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_11_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-0343-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_1\P_11_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_11_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-0343-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_11_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-0343-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_11_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-0369-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_2\P_11_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_11_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-0369-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_11_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-0369-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_12_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0394-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_1\P_12_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_12_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0394-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_12_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0394-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_12_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0419-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_2\P_12_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_12_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0419-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_12_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0419-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_13_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0444-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_1\P_13_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_13_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0444-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_13_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0444-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_13_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0469-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_2\P_13_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_13_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0469-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_13_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0469-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_14_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0494-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_1\P_14_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_14_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0494-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_14_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0494-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_14_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0519-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_2\P_14_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_14_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0519-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_14_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0519-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_15_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0544-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_1\P_15_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_15_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0544-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_15_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0544-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_15_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0569-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_2\P_15_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_15_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0569-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_15_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0569-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_16_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0594-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_1\P_16_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_16_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0594-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_16_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0594-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_16_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0619-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_2\P_16_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_16_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0619-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_16_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0619-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_17_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0644-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_1\P_17_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_17_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0644-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_17_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0644-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_17_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0669-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_2\P_17_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_17_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0669-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_17_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0669-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_18_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0694-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_1\P_18_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_18_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0694-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_18_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0694-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_18_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-0720-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_2\P_18_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_18_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-0720-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_18_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-0720-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_19_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_16\IM-0748-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_1\P_19_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_19_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_16\IM-0748-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_19_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_16\IM-0748-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_19_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0773-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_2\P_19_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_19_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0773-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_19_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0773-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_20_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0798-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_1\P_20_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_20_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0798-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_20_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0798-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_20_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0823-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_2\P_20_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_20_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0823-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_20_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0823-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_21_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0848-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_1\P_21_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_21_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0848-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_21_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0848-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_21_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0873-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_2\P_21_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_21_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0873-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_21_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0873-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_22_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0898-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_1\P_22_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_22_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0898-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_22_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0898-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_22_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0923-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_2\P_22_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_22_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0923-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_22_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0923-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_23_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0948-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_1\P_23_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_23_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0948-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_23_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0948-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_23_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0973-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_2\P_23_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_23_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0973-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_23_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0973-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_24_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0998-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_1\P_24_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_24_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0998-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_24_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-0998-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_24_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1023-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_2\P_24_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_24_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1023-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_24_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1023-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_25_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1048-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_1\P_25_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_25_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1048-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_25_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1048-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_25_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1073-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_2\P_25_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_25_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1073-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_25_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1073-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_26_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1098-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_1\P_26_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_26_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1098-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_26_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1098-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_26_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1123-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_2\P_26_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_26_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1123-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_26_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1123-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_27_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1148-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_1\P_27_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_27_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1148-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_27_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1148-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_27_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1173-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_2\P_27_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_27_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1173-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_27_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1173-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_28_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-1199-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_1\P_28_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_28_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-1199-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_28_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-1199-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_28_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-1234-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_2\P_28_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_28_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-1234-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_28_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-1234-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_29_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1259-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_1\P_29_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_29_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1259-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_29_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1259-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_29_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1284-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_2\P_29_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_29_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1284-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_29_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1284-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_30_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1309-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_1\P_30_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_30_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1309-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_30_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1309-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_30_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1334-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_2\P_30_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_30_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1334-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_30_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1334-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_31_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-1371-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_1\P_31_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_31_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-1371-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_31_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-1371-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_31_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1396-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_2\P_31_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_31_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1396-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_31_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1396-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_32_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-1431-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_1\P_32_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_32_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-1431-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_32_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-1431-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_32_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1456-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_2\P_32_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_32_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1456-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_32_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1456-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_33_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1481-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_1\P_33_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_33_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1481-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_33_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1481-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_33_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1506-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_2\P_33_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_33_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1506-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_33_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1506-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_34_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1531-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_1\P_34_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_34_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1531-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_34_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1531-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_34_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1556-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_2\P_34_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_34_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1556-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_34_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1556-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_35_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-1582-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_1\P_35_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_35_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-1582-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_35_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-1582-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_35_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-1608-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_2\P_35_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_35_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-1608-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_35_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-1608-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_36_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1633-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_1\P_36_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_36_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1633-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_36_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1633-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_36_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1658-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_2\P_36_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_36_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1658-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_36_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1658-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_37_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1683-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_1\P_37_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_37_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1683-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_37_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1683-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_37_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1708-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_2\P_37_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_37_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1708-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_37_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1708-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_38_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1733-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_1\P_38_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_38_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1733-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_38_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1733-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_38_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1758-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_2\P_38_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_38_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1758-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_38_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1758-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_39_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1783-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_1\P_39_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_39_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1783-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_39_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1783-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_39_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1808-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_2\P_39_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_39_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1808-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_39_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1808-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_40_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1833-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_1\P_40_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_40_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1833-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_40_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1833-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_40_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1858-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_2\P_40_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_40_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1858-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_40_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1858-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_41_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-1884-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_1\P_41_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_41_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-1884-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_41_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-1884-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_41_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1909-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_2\P_41_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_41_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1909-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_41_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1909-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_42_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1934-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_1\P_42_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_42_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1934-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_42_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1934-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_42_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1959-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_2\P_42_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_42_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1959-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_42_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-1959-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_43_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-1985-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_1\P_43_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_43_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-1985-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_43_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-1985-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_43_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-2011-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_2\P_43_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_43_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-2011-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_43_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-2011-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_44_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2039-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_1\P_44_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_44_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2039-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_44_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2039-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_44_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2064-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_2\P_44_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_44_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2064-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_44_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2064-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_45_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2089-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_1\P_45_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_45_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2089-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_45_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2089-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_45_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-2115-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_2\P_45_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_45_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-2115-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_45_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-2115-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_46_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2140-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_1\P_46_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_46_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2140-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_46_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2140-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_46_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2165-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_2\P_46_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_46_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2165-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_46_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2165-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_47_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2190-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_1\P_47_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_47_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2190-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_47_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2190-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_47_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2215-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_2\P_47_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_47_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2215-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_47_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2215-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_48_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2240-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_1\P_48_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_48_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2240-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_48_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2240-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_48_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2265-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_2\P_48_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_48_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2265-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_48_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2265-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_49_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-2291-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_1\P_49_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_49_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-2291-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_49_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-2291-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_49_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2316-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_2\P_49_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_49_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2316-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_49_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2316-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_50_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-2342-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_1\P_50_D_1_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_50_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-2342-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_50_Durchgang_1\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_14\IM-2342-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_50_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2367-0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_2\P_50_D_2_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_50_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2367-0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_50_Durchgang_2\Herz_Herz - 1\T1Map_LongT1_niedrige_HF_KA_MOCO_T1_13\IM-2367-0003.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P51\T1Map_LongT1_MOCO_T1\P51_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P51_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P51\T1Map_LongT1_MOCO_T1\P51_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P51\T1Map_LongT1_MOCO_T1\P51_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P52\T1Map_LongT1_MOCO_T1\P52_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P52_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P52\T1Map_LongT1_MOCO_T1\P52_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P52\T1Map_LongT1_MOCO_T1\P52_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P54\T1Map_LongT1_MOCO_T1\P54_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P54_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P54\T1Map_LongT1_MOCO_T1\P54_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P54\T1Map_LongT1_MOCO_T1\P54_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P55\T1Map_LongT1_MOCO_T1\P55_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P55_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P55\T1Map_LongT1_MOCO_T1\P55_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P55\T1Map_LongT1_MOCO_T1\P55_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P59\T1Map_LongT1_MOCO_T1\P59_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P59_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P59\T1Map_LongT1_MOCO_T1\P59_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P59\T1Map_LongT1_MOCO_T1\P59_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P60\T1Map_LongT1_MOCO_T1\P60_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P60_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P60\T1Map_LongT1_MOCO_T1\P60_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P60\T1Map_LongT1_MOCO_T1\P60_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P61\T1Map_LongT1_MOCO_T1\P61_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P61_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P61\T1Map_LongT1_MOCO_T1\P61_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P61\T1Map_LongT1_MOCO_T1\P61_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P62\T1Map_LongT1_MOCO_T1\P62_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P62_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P62\T1Map_LongT1_MOCO_T1\P62_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P62\T1Map_LongT1_MOCO_T1\P62_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P63\T1Map_LongT1_MOCO_T1\P63_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P63_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P63\T1Map_LongT1_MOCO_T1\P63_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P63\T1Map_LongT1_MOCO_T1\P63_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P64\T1Map_LongT1_MOCO_T1\P64_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P64_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P64\T1Map_LongT1_MOCO_T1\P64_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P64\T1Map_LongT1_MOCO_T1\P64_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P65\T1Map_LongT1_MOCO_T1\P65_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P65_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P65\T1Map_LongT1_MOCO_T1\P65_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P65\T1Map_LongT1_MOCO_T1\P65_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P66\T1Map_LongT1_MOCO_T1\P66_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P66_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P66\T1Map_LongT1_MOCO_T1\P66_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P66\T1Map_LongT1_MOCO_T1\P66_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P67\T1Map_LongT1_MOCO_T1\P67_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P67_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P67\T1Map_LongT1_MOCO_T1\P67_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P67\T1Map_LongT1_MOCO_T1\P67_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P68\T1Map_LongT1_MOCO_T1\P68_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P68_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P68\T1Map_LongT1_MOCO_T1\P68_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P68\T1Map_LongT1_MOCO_T1\P68_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P69\T1Map_LongT1_MOCO_T1\P69_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P69_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P69\T1Map_LongT1_MOCO_T1\P69_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P69\T1Map_LongT1_MOCO_T1\P69_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P72\T1Map_LongT1_MOCO_T1\P72_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P72_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P72\T1Map_LongT1_MOCO_T1\P72_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P72\T1Map_LongT1_MOCO_T1\P72_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P73\T1Map_LongT1_MOCO_T1\P73_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P73_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P73\T1Map_LongT1_MOCO_T1\P73_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P73\T1Map_LongT1_MOCO_T1\P73_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P74\T1Map_LongT1_MOCO_T1\P74_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P74_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P74\T1Map_LongT1_MOCO_T1\P74_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P74\T1Map_LongT1_MOCO_T1\P74_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P75\T1Map_LongT1_MOCO_T1\P75_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P75_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P75\T1Map_LongT1_MOCO_T1\P75_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P75\T1Map_LongT1_MOCO_T1\P75_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P76\T1Map_LongT1_MOCO_T1\P76_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P76_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P76\T1Map_LongT1_MOCO_T1\P76_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P76\T1Map_LongT1_MOCO_T1\P76_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P77\T1Map_LongT1_MOCO_T1\P77_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P77_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P77\T1Map_LongT1_MOCO_T1\P77_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P77\T1Map_LongT1_MOCO_T1\P77_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P78\T1Map_LongT1_MOCO_T1\P78_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P78_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P78\T1Map_LongT1_MOCO_T1\P78_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P78\T1Map_LongT1_MOCO_T1\P78_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P79\T1Map_LongT1_MOCO_T1\P79_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P79_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P79\T1Map_LongT1_MOCO_T1\P79_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P79\T1Map_LongT1_MOCO_T1\P79_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P80\T1Map_LongT1_MOCO_T1\P80_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P80_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P80\T1Map_LongT1_MOCO_T1\P80_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P80\T1Map_LongT1_MOCO_T1\P80_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P81\T1Map_LongT1_MOCO_T1\P81_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P81_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P81\T1Map_LongT1_MOCO_T1\P81_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P81\T1Map_LongT1_MOCO_T1\P81_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P82\T1Map_LongT1_MOCO_T1\P82_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P82_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P82\T1Map_LongT1_MOCO_T1\P82_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P82\T1Map_LongT1_MOCO_T1\P82_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P84\T1Map_LongT1_MOCO_T1\P84_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P84_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P84\T1Map_LongT1_MOCO_T1\P84_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P84\T1Map_LongT1_MOCO_T1\P84_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P86\T1Map_LongT1_MOCO_T1\P86_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P86_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P86\T1Map_LongT1_MOCO_T1\P86_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P86\T1Map_LongT1_MOCO_T1\P86_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P87\T1Map_LongT1_MOCO_T1\P87_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P87_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P87\T1Map_LongT1_MOCO_T1\P87_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P87\T1Map_LongT1_MOCO_T1\P87_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P88\T1Map_LongT1_MOCO_T1\P88_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P88_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P88\T1Map_LongT1_MOCO_T1\P88_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P88\T1Map_LongT1_MOCO_T1\P88_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P89\T1Map_LongT1_MOCO_T1\P89_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P89_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P89\T1Map_LongT1_MOCO_T1\P89_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P89\T1Map_LongT1_MOCO_T1\P89_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P90\T1Map_LongT1_MOCO_T1\P90_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P90_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P90\T1Map_LongT1_MOCO_T1\P90_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P90\T1Map_LongT1_MOCO_T1\P90_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P92\T1Map_LongT1_MOCO_T1\P92_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P92_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P92\T1Map_LongT1_MOCO_T1\P92_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P92\T1Map_LongT1_MOCO_T1\P92_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P93\T1Map_LongT1_MOCO_T1\P93_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P93_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P93\T1Map_LongT1_MOCO_T1\P93_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P93\T1Map_LongT1_MOCO_T1\P93_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P94\T1Map_LongT1_MOCO_T1\P94_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P94_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P94\T1Map_LongT1_MOCO_T1\P94_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P94\T1Map_LongT1_MOCO_T1\P94_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P95\T1Map_LongT1_MOCO_T1\P95_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P95_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P95\T1Map_LongT1_MOCO_T1\P95_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P95\T1Map_LongT1_MOCO_T1\P95_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P96\T1Map_LongT1_MOCO_T1\P96_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P96_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P96\T1Map_LongT1_MOCO_T1\P96_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P96\T1Map_LongT1_MOCO_T1\P96_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P97\T1Map_LongT1_MOCO_T1\P97_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P97_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P97\T1Map_LongT1_MOCO_T1\P97_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P97\T1Map_LongT1_MOCO_T1\P97_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P98\T1Map_LongT1_MOCO_T1\P98_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P98_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P98\T1Map_LongT1_MOCO_T1\P98_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P98\T1Map_LongT1_MOCO_T1\P98_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P99\T1Map_LongT1_MOCO_T1\P99_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P99_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P99\T1Map_LongT1_MOCO_T1\P99_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P99\T1Map_LongT1_MOCO_T1\P99_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P100\T1Map_LongT1_MOCO_T1\P100_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P100_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P100\T1Map_LongT1_MOCO_T1\P100_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P100\T1Map_LongT1_MOCO_T1\P100_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P101\T1Map_LongT1_MOCO_T1\P101_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P101_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P101\T1Map_LongT1_MOCO_T1\P101_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P101\T1Map_LongT1_MOCO_T1\P101_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P102\T1Map_LongT1_MOCO_T1\P102_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P102_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P102\T1Map_LongT1_MOCO_T1\P102_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P102\T1Map_LongT1_MOCO_T1\P102_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P103\T1Map_LongT1_MOCO_T1\P103_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P103_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P103\T1Map_LongT1_MOCO_T1\P103_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P103\T1Map_LongT1_MOCO_T1\P103_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P104\T1Map_LongT1_MOCO_T1\P104_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P104_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P104\T1Map_LongT1_MOCO_T1\P104_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P104\T1Map_LongT1_MOCO_T1\P104_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P105\T1Map_LongT1_MOCO_T1\P105_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P105_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P105\T1Map_LongT1_MOCO_T1\P105_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P105\T1Map_LongT1_MOCO_T1\P105_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P106\T1Map_LongT1_MOCO_T1\P106_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P106_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P106\T1Map_LongT1_MOCO_T1\P106_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P106\T1Map_LongT1_MOCO_T1\P106_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P107\T1Map_LongT1_MOCO_T1\P107_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P107_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P107\T1Map_LongT1_MOCO_T1\P107_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P107\T1Map_LongT1_MOCO_T1\P107_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P108\T1Map_LongT1_MOCO_T1\P108_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P108_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P108\T1Map_LongT1_MOCO_T1\P108_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P108\T1Map_LongT1_MOCO_T1\P108_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P110\T1Map_LongT1_MOCO_T1\P110_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P110_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P110\T1Map_LongT1_MOCO_T1\P110_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P110\T1Map_LongT1_MOCO_T1\P110_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P111\T1Map_LongT1_MOCO_T1\P111_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P111_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P111\T1Map_LongT1_MOCO_T1\P111_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P111\T1Map_LongT1_MOCO_T1\P111_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P112\T1Map_LongT1_MOCO_T1\P112_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P112_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P112\T1Map_LongT1_MOCO_T1\P112_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P112\T1Map_LongT1_MOCO_T1\P112_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P113\T1Map_LongT1_MOCO_T1\P113_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P113_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P113\T1Map_LongT1_MOCO_T1\P113_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P113\T1Map_LongT1_MOCO_T1\P113_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P114\T1Map_LongT1_MOCO_T1\P114_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P114_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P114\T1Map_LongT1_MOCO_T1\P114_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P114\T1Map_LongT1_MOCO_T1\P114_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P115\T1Map_LongT1_MOCO_T1\P115_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P115_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P115\T1Map_LongT1_MOCO_T1\P115_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P115\T1Map_LongT1_MOCO_T1\P115_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P116\T1Map_LongT1_MOCO_T1\P116_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P116_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P116\T1Map_LongT1_MOCO_T1\P116_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P116\T1Map_LongT1_MOCO_T1\P116_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P117\T1Map_LongT1_MOCO_T1\P117_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P117_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P117\T1Map_LongT1_MOCO_T1\P117_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P117\T1Map_LongT1_MOCO_T1\P117_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P118\T1Map_LongT1_MOCO_T1\P118_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P118_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P118\T1Map_LongT1_MOCO_T1\P118_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P118\T1Map_LongT1_MOCO_T1\P118_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P121\T1Map_LongT1_MOCO_T1\P121_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P121_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P121\T1Map_LongT1_MOCO_T1\P121_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P121\T1Map_LongT1_MOCO_T1\P121_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P122\T1Map_LongT1_MOCO_T1\P122_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P122_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P122\T1Map_LongT1_MOCO_T1\P122_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P122\T1Map_LongT1_MOCO_T1\P122_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P123\T1Map_LongT1_MOCO_T1\P123_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P123_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P123\T1Map_LongT1_MOCO_T1\P123_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P123\T1Map_LongT1_MOCO_T1\P123_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P124\T1Map_LongT1_MOCO_T1\P124_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P124_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P124\T1Map_LongT1_MOCO_T1\P124_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P124\T1Map_LongT1_MOCO_T1\P124_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P125\T1Map_LongT1_MOCO_T1\P125_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P125_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P125\T1Map_LongT1_MOCO_T1\P125_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P125\T1Map_LongT1_MOCO_T1\P125_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P126\T1Map_LongT1_MOCO_T1\P126_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P126_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P126\T1Map_LongT1_MOCO_T1\P126_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P126\T1Map_LongT1_MOCO_T1\P126_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P127\T1Map_LongT1_MOCO_T1\P127_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P127_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P127\T1Map_LongT1_MOCO_T1\P127_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P127\T1Map_LongT1_MOCO_T1\P127_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P128\T1Map_LongT1_MOCO_T1\P128_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P128_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P128\T1Map_LongT1_MOCO_T1\P128_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P128\T1Map_LongT1_MOCO_T1\P128_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P129\T1Map_LongT1_MOCO_T1\P129_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P129_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P129\T1Map_LongT1_MOCO_T1\P129_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P129\T1Map_LongT1_MOCO_T1\P129_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P130\T1Map_LongT1_MOCO_T1\P130_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P130_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P130\T1Map_LongT1_MOCO_T1\P130_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P130\T1Map_LongT1_MOCO_T1\P130_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P131\T1Map_LongT1_MOCO_T1\P131_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P131_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P131\T1Map_LongT1_MOCO_T1\P131_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P131\T1Map_LongT1_MOCO_T1\P131_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P132\T1Map_LongT1_MOCO_T1\P132_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P132_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P132\T1Map_LongT1_MOCO_T1\P132_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P132\T1Map_LongT1_MOCO_T1\P132_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P133\T1Map_LongT1_MOCO_T1\P133_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P133_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P133\T1Map_LongT1_MOCO_T1\P133_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P133\T1Map_LongT1_MOCO_T1\P133_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P134\T1Map_LongT1_MOCO_T1\P134_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P134_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P134\T1Map_LongT1_MOCO_T1\P134_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P134\T1Map_LongT1_MOCO_T1\P134_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P135\T1Map_LongT1_MOCO_T1\P135_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P135_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P135\T1Map_LongT1_MOCO_T1\P135_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P135\T1Map_LongT1_MOCO_T1\P135_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P136\T1Map_LongT1_MOCO_T1\P136_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P136_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P136\T1Map_LongT1_MOCO_T1\P136_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P136\T1Map_LongT1_MOCO_T1\P136_0002.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P137\T1Map_LongT1_MOCO_T1\P137_0000.dcm</t>
+  </si>
+  <si>
+    <t>..\data\mha\masks\T1_highres_sax\D_3\P137_D3_mask.mha</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P137\T1Map_LongT1_MOCO_T1\P137_0001.dcm</t>
+  </si>
+  <si>
+    <t>..\data\dcm\Mapping_Studie_P137\T1Map_LongT1_MOCO_T1\P137_0002.dcm</t>
   </si>
 </sst>
 </file>
@@ -4656,7 +4656,7 @@
   <dimension ref="A1:R626"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4746,10 +4746,10 @@
         <v>73</v>
       </c>
       <c r="G2" t="s">
+        <v>485</v>
+      </c>
+      <c r="H2" t="s">
         <v>486</v>
-      </c>
-      <c r="H2" t="s">
-        <v>487</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>75</v>
@@ -4793,10 +4793,10 @@
         <v>73</v>
       </c>
       <c r="G3" t="s">
+        <v>487</v>
+      </c>
+      <c r="H3" t="s">
         <v>488</v>
-      </c>
-      <c r="H3" t="s">
-        <v>489</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>75</v>
@@ -4840,10 +4840,10 @@
         <v>73</v>
       </c>
       <c r="G4" t="s">
+        <v>489</v>
+      </c>
+      <c r="H4" t="s">
         <v>490</v>
-      </c>
-      <c r="H4" t="s">
-        <v>491</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>75</v>
@@ -4887,10 +4887,10 @@
         <v>73</v>
       </c>
       <c r="G5" t="s">
+        <v>491</v>
+      </c>
+      <c r="H5" t="s">
         <v>492</v>
-      </c>
-      <c r="H5" t="s">
-        <v>493</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>75</v>
@@ -4934,10 +4934,10 @@
         <v>73</v>
       </c>
       <c r="G6" t="s">
+        <v>493</v>
+      </c>
+      <c r="H6" t="s">
         <v>494</v>
-      </c>
-      <c r="H6" t="s">
-        <v>495</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>75</v>
@@ -4981,10 +4981,10 @@
         <v>73</v>
       </c>
       <c r="G7" t="s">
+        <v>495</v>
+      </c>
+      <c r="H7" t="s">
         <v>496</v>
-      </c>
-      <c r="H7" t="s">
-        <v>497</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>75</v>
@@ -5028,10 +5028,10 @@
         <v>73</v>
       </c>
       <c r="G8" t="s">
+        <v>497</v>
+      </c>
+      <c r="H8" t="s">
         <v>498</v>
-      </c>
-      <c r="H8" t="s">
-        <v>499</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>75</v>
@@ -5075,10 +5075,10 @@
         <v>73</v>
       </c>
       <c r="G9" t="s">
+        <v>499</v>
+      </c>
+      <c r="H9" t="s">
         <v>500</v>
-      </c>
-      <c r="H9" t="s">
-        <v>501</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>75</v>
@@ -5122,10 +5122,10 @@
         <v>73</v>
       </c>
       <c r="G10" t="s">
+        <v>501</v>
+      </c>
+      <c r="H10" t="s">
         <v>502</v>
-      </c>
-      <c r="H10" t="s">
-        <v>503</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>75</v>
@@ -5169,10 +5169,10 @@
         <v>73</v>
       </c>
       <c r="G11" t="s">
+        <v>503</v>
+      </c>
+      <c r="H11" t="s">
         <v>504</v>
-      </c>
-      <c r="H11" t="s">
-        <v>505</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>75</v>
@@ -5216,10 +5216,10 @@
         <v>73</v>
       </c>
       <c r="G12" t="s">
+        <v>505</v>
+      </c>
+      <c r="H12" t="s">
         <v>506</v>
-      </c>
-      <c r="H12" t="s">
-        <v>507</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>75</v>
@@ -5263,7 +5263,7 @@
         <v>73</v>
       </c>
       <c r="G13" t="s">
-        <v>485</v>
+        <v>507</v>
       </c>
       <c r="H13" t="s">
         <v>508</v>
